--- a/Contact (res.partner).xlsx
+++ b/Contact (res.partner).xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q0125\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4100E94C-AA81-4662-898B-C3C7980C1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>External ID</t>
   </si>
@@ -28,17 +22,494 @@
     <t>Projects/Employee Code</t>
   </si>
   <si>
-    <t>__export__.res_partner_357_932e880c</t>
-  </si>
-  <si>
-    <t>DRP/2024/0102</t>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_070</t>
+  </si>
+  <si>
+    <t>Abhijit Khanvilkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_018</t>
+  </si>
+  <si>
+    <t>Abhishek Chavan</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_050</t>
+  </si>
+  <si>
+    <t>Aditi Pawar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_011</t>
+  </si>
+  <si>
+    <t>Ajay Dube</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_498_3d3316b6</t>
+  </si>
+  <si>
+    <t>Akshay Patil</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_475_7584f238</t>
+  </si>
+  <si>
+    <t>Amaan Shaikh</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_058</t>
+  </si>
+  <si>
+    <t>Amol Mestry</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_031</t>
+  </si>
+  <si>
+    <t>Ankita Gaikwad</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_027</t>
+  </si>
+  <si>
+    <t>Ankita Shirkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_063</t>
+  </si>
+  <si>
+    <t>Ankur Naik</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_492_0c55fe59</t>
+  </si>
+  <si>
+    <t>Ankush Nikam</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_464_5111c6b8</t>
+  </si>
+  <si>
+    <t>Arvind Maurya</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_497_4db063af</t>
+  </si>
+  <si>
+    <t>Ashish Deorukhar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_496_a15f9697</t>
+  </si>
+  <si>
+    <t>Balaji Deshmukh</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_016</t>
+  </si>
+  <si>
+    <t>Bhavna Dengada</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_024</t>
+  </si>
+  <si>
+    <t>Dhanashree Khedekar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_055</t>
+  </si>
+  <si>
+    <t>Divya Gire</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_023</t>
+  </si>
+  <si>
+    <t>Gayasuddeen Idreesi</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_042</t>
+  </si>
+  <si>
+    <t>Geeta Tagelly</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_068</t>
+  </si>
+  <si>
+    <t>Gitika Advani</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_501_eb3c88c9</t>
+  </si>
+  <si>
+    <t>Hansraj Bari</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_028</t>
+  </si>
+  <si>
+    <t>Harshali Wankhede</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_495_5f9dbfdc</t>
+  </si>
+  <si>
+    <t>Jaanrao Narwade</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_469_632da1a5</t>
+  </si>
+  <si>
+    <t>Juvil Palkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_026</t>
+  </si>
+  <si>
+    <t>Kalpana Pawar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_483_00098e7f</t>
+  </si>
+  <si>
+    <t>Keyur Chotaliya</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_008</t>
+  </si>
+  <si>
+    <t>Kishor Dhanve</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_060</t>
+  </si>
+  <si>
+    <t>Kunal Patil</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_033</t>
+  </si>
+  <si>
+    <t>Latika Indulkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_013</t>
+  </si>
+  <si>
+    <t>Leena Pawar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_044</t>
+  </si>
+  <si>
+    <t>Madhushree Sapre</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_064</t>
+  </si>
+  <si>
+    <t>Mahesh Gupta</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_029</t>
+  </si>
+  <si>
+    <t>Maheshwari Naik</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_019</t>
+  </si>
+  <si>
+    <t>Manjiree Jadhav</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_069</t>
+  </si>
+  <si>
+    <t>Manoj Harlikar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_041</t>
+  </si>
+  <si>
+    <t>Mayuri Shigwan</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_006</t>
+  </si>
+  <si>
+    <t>Mohan Subramanian</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_065</t>
+  </si>
+  <si>
+    <t>Monika Sakpal</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_463_bd5ba90f</t>
+  </si>
+  <si>
+    <t>Murugha Doss</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_057</t>
+  </si>
+  <si>
+    <t>Namrata Kale</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_036</t>
+  </si>
+  <si>
+    <t>Neha Gaikwad</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_474_8cda7fc5</t>
+  </si>
+  <si>
+    <t>Neha Pant</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_004</t>
+  </si>
+  <si>
+    <t>Neha Pejle</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_012</t>
+  </si>
+  <si>
+    <t>Neha Talekar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_499_996b77af</t>
+  </si>
+  <si>
+    <t>Neha Warkhade</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_035</t>
+  </si>
+  <si>
+    <t>Nikita Chile</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_015</t>
+  </si>
+  <si>
+    <t>Nilam Hankare</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_049</t>
+  </si>
+  <si>
+    <t>Nimisha Kalingan</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_043</t>
+  </si>
+  <si>
+    <t>Nitin Avere</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_017</t>
+  </si>
+  <si>
+    <t>Omkar Parab</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_476_00cf7caa</t>
+  </si>
+  <si>
+    <t>Pinku Adhikari</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_021</t>
+  </si>
+  <si>
+    <t>Prajakta Mohite</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_066</t>
+  </si>
+  <si>
+    <t>Prakash Dhapola</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_009</t>
+  </si>
+  <si>
+    <t>Pranay Zadekar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_038</t>
+  </si>
+  <si>
+    <t>Pushpa Patkare</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_047</t>
+  </si>
+  <si>
+    <t>Rajendra Navlu</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_477_068836f4</t>
+  </si>
+  <si>
+    <t>Rajiv Meshram</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_001</t>
+  </si>
+  <si>
+    <t>Rakesh Gawade</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_484_b938f851</t>
+  </si>
+  <si>
+    <t>ram kishore</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_491_c52858e2</t>
+  </si>
+  <si>
+    <t>Ranjeev Mahindru</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_505_cb8d2430</t>
+  </si>
+  <si>
+    <t>Ranveer Kapoor</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_061</t>
+  </si>
+  <si>
+    <t>Renuka Kaushik</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_003</t>
+  </si>
+  <si>
+    <t>Riddhi Pujari</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_030</t>
+  </si>
+  <si>
+    <t>Rohan Pal</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_074</t>
+  </si>
+  <si>
+    <t>Rupesh Chaudhari</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_046</t>
+  </si>
+  <si>
+    <t>Sahil Sawant</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_053</t>
+  </si>
+  <si>
+    <t>Sailee Dabholkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_052</t>
+  </si>
+  <si>
+    <t>Sakshi More</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_037</t>
+  </si>
+  <si>
+    <t>Sanghamitra Onkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_071</t>
+  </si>
+  <si>
+    <t>Sanjay Chakraborty</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_480_7dc8c491</t>
+  </si>
+  <si>
+    <t>Sharim Wandrick</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_014</t>
+  </si>
+  <si>
+    <t>Shital Chandarkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_478_d16a6bf9</t>
+  </si>
+  <si>
+    <t>Shubham Andotra</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_007</t>
+  </si>
+  <si>
+    <t>Shweta Mishra</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_010</t>
+  </si>
+  <si>
+    <t>Sohail Kazi</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_002</t>
+  </si>
+  <si>
+    <t>Suhas Jadhav</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_056</t>
+  </si>
+  <si>
+    <t>Sunita Dhuri</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_022</t>
+  </si>
+  <si>
+    <t>Surekha Hande</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_020</t>
+  </si>
+  <si>
+    <t>Swati Gaikwad</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_054</t>
+  </si>
+  <si>
+    <t>Tanvi Kudalkar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,21 +558,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +602,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +670,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,32 +845,745 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Contact (res.partner).xlsx
+++ b/Contact (res.partner).xlsx
@@ -14,23 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>External ID</t>
   </si>
   <si>
+    <t>Display Name</t>
+  </si>
+  <si>
     <t>Projects/Employee Code</t>
   </si>
   <si>
-    <t>Display Name</t>
-  </si>
-  <si>
     <t>__export__.res_partner_070</t>
   </si>
   <si>
     <t>Abhijit Khanvilkar</t>
   </si>
   <si>
+    <t>DRP/2024/PU0001</t>
+  </si>
+  <si>
     <t>__export__.res_partner_018</t>
   </si>
   <si>
@@ -253,12 +256,6 @@
     <t>Monika Sakpal</t>
   </si>
   <si>
-    <t>__export__.res_partner_463_bd5ba90f</t>
-  </si>
-  <si>
-    <t>Murugha Doss</t>
-  </si>
-  <si>
     <t>__export__.res_partner_057</t>
   </si>
   <si>
@@ -503,6 +500,96 @@
   </si>
   <si>
     <t>Tanvi Kudalkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_481_2ef310c2</t>
+  </si>
+  <si>
+    <t>Tejas Sontakke</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_039</t>
+  </si>
+  <si>
+    <t>Tushar Shinde</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_025</t>
+  </si>
+  <si>
+    <t>Vaishnavi Khandekar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_040</t>
+  </si>
+  <si>
+    <t>Varsha Shete</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_067</t>
+  </si>
+  <si>
+    <t>Varun Bhatia</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_051</t>
+  </si>
+  <si>
+    <t>Vedant Vaidya</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_005</t>
+  </si>
+  <si>
+    <t>Vijay Mahajan</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_045</t>
+  </si>
+  <si>
+    <t>Vinayak Gholap</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_048</t>
+  </si>
+  <si>
+    <t>Vishakha Sable</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_062</t>
+  </si>
+  <si>
+    <t>Vishkha Chamare</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_032</t>
+  </si>
+  <si>
+    <t>Vishvanath Bhosale</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_059</t>
+  </si>
+  <si>
+    <t>Yash Prabhulkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_034</t>
+  </si>
+  <si>
+    <t>Yogesh Kharat</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_482_59c2d05d</t>
+  </si>
+  <si>
+    <t>Zaid Borkar</t>
+  </si>
+  <si>
+    <t>__export__.res_partner_479_343c80c3</t>
+  </si>
+  <si>
+    <t>Zeel Shah</t>
   </si>
 </sst>
 </file>
@@ -846,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,721 +957,849 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contact (res.partner).xlsx
+++ b/Contact (res.partner).xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q0125\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CF7B02-8A0B-4D47-A052-2617CAA499A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>External ID</t>
   </si>
@@ -31,9 +37,6 @@
     <t>Abhijit Khanvilkar</t>
   </si>
   <si>
-    <t>DRP/2024/PU0001</t>
-  </si>
-  <si>
     <t>__export__.res_partner_018</t>
   </si>
   <si>
@@ -590,13 +593,295 @@
   </si>
   <si>
     <t>Zeel Shah</t>
+  </si>
+  <si>
+    <t>DRP/2024/0001</t>
+  </si>
+  <si>
+    <t>DRP/2024/0002</t>
+  </si>
+  <si>
+    <t>DRP/2024/0003</t>
+  </si>
+  <si>
+    <t>DRP/2024/0004</t>
+  </si>
+  <si>
+    <t>DRP/2024/0005</t>
+  </si>
+  <si>
+    <t>DRP/2024/0006</t>
+  </si>
+  <si>
+    <t>DRP/2024/0007</t>
+  </si>
+  <si>
+    <t>DRP/2024/0008</t>
+  </si>
+  <si>
+    <t>DRP/2024/0009</t>
+  </si>
+  <si>
+    <t>DRP/2024/0010</t>
+  </si>
+  <si>
+    <t>DRP/2024/0011</t>
+  </si>
+  <si>
+    <t>DRP/2024/0012</t>
+  </si>
+  <si>
+    <t>DRP/2024/0013</t>
+  </si>
+  <si>
+    <t>DRP/2024/0014</t>
+  </si>
+  <si>
+    <t>DRP/2024/0015</t>
+  </si>
+  <si>
+    <t>DRP/2024/0016</t>
+  </si>
+  <si>
+    <t>DRP/2024/0017</t>
+  </si>
+  <si>
+    <t>DRP/2024/0018</t>
+  </si>
+  <si>
+    <t>DRP/2024/0019</t>
+  </si>
+  <si>
+    <t>DRP/2024/0020</t>
+  </si>
+  <si>
+    <t>DRP/2024/0021</t>
+  </si>
+  <si>
+    <t>DRP/2024/0022</t>
+  </si>
+  <si>
+    <t>DRP/2024/0023</t>
+  </si>
+  <si>
+    <t>DRP/2024/0024</t>
+  </si>
+  <si>
+    <t>DRP/2024/0025</t>
+  </si>
+  <si>
+    <t>DRP/2024/0026</t>
+  </si>
+  <si>
+    <t>DRP/2024/0027</t>
+  </si>
+  <si>
+    <t>DRP/2024/0028</t>
+  </si>
+  <si>
+    <t>DRP/2024/0029</t>
+  </si>
+  <si>
+    <t>DRP/2024/0030</t>
+  </si>
+  <si>
+    <t>DRP/2024/0031</t>
+  </si>
+  <si>
+    <t>DRP/2024/0032</t>
+  </si>
+  <si>
+    <t>DRP/2024/0033</t>
+  </si>
+  <si>
+    <t>DRP/2024/0034</t>
+  </si>
+  <si>
+    <t>DRP/2024/0035</t>
+  </si>
+  <si>
+    <t>DRP/2024/0036</t>
+  </si>
+  <si>
+    <t>DRP/2024/0037</t>
+  </si>
+  <si>
+    <t>DRP/2024/0038</t>
+  </si>
+  <si>
+    <t>DRP/2024/0039</t>
+  </si>
+  <si>
+    <t>DRP/2024/0040</t>
+  </si>
+  <si>
+    <t>DRP/2024/0041</t>
+  </si>
+  <si>
+    <t>DRP/2024/0042</t>
+  </si>
+  <si>
+    <t>DRP/2024/0043</t>
+  </si>
+  <si>
+    <t>DRP/2024/0044</t>
+  </si>
+  <si>
+    <t>DRP/2024/0045</t>
+  </si>
+  <si>
+    <t>DRP/2024/0046</t>
+  </si>
+  <si>
+    <t>DRP/2024/0047</t>
+  </si>
+  <si>
+    <t>DRP/2024/0048</t>
+  </si>
+  <si>
+    <t>DRP/2024/0049</t>
+  </si>
+  <si>
+    <t>DRP/2024/0050</t>
+  </si>
+  <si>
+    <t>DRP/2024/0051</t>
+  </si>
+  <si>
+    <t>DRP/2024/0052</t>
+  </si>
+  <si>
+    <t>DRP/2024/0053</t>
+  </si>
+  <si>
+    <t>DRP/2024/0054</t>
+  </si>
+  <si>
+    <t>DRP/2024/0055</t>
+  </si>
+  <si>
+    <t>DRP/2024/0056</t>
+  </si>
+  <si>
+    <t>DRP/2024/0057</t>
+  </si>
+  <si>
+    <t>DRP/2024/0058</t>
+  </si>
+  <si>
+    <t>DRP/2024/0059</t>
+  </si>
+  <si>
+    <t>DRP/2024/0060</t>
+  </si>
+  <si>
+    <t>DRP/2024/0061</t>
+  </si>
+  <si>
+    <t>DRP/2024/0062</t>
+  </si>
+  <si>
+    <t>DRP/2024/0063</t>
+  </si>
+  <si>
+    <t>DRP/2024/0064</t>
+  </si>
+  <si>
+    <t>DRP/2024/0065</t>
+  </si>
+  <si>
+    <t>DRP/2024/0066</t>
+  </si>
+  <si>
+    <t>DRP/2024/0067</t>
+  </si>
+  <si>
+    <t>DRP/2024/0068</t>
+  </si>
+  <si>
+    <t>DRP/2024/0069</t>
+  </si>
+  <si>
+    <t>DRP/2024/0070</t>
+  </si>
+  <si>
+    <t>DRP/2024/0071</t>
+  </si>
+  <si>
+    <t>DRP/2024/0072</t>
+  </si>
+  <si>
+    <t>DRP/2024/0073</t>
+  </si>
+  <si>
+    <t>DRP/2024/0074</t>
+  </si>
+  <si>
+    <t>DRP/2024/0075</t>
+  </si>
+  <si>
+    <t>DRP/2024/0076</t>
+  </si>
+  <si>
+    <t>DRP/2024/0077</t>
+  </si>
+  <si>
+    <t>DRP/2024/0078</t>
+  </si>
+  <si>
+    <t>DRP/2024/0079</t>
+  </si>
+  <si>
+    <t>DRP/2024/0080</t>
+  </si>
+  <si>
+    <t>DRP/2024/0081</t>
+  </si>
+  <si>
+    <t>DRP/2024/0082</t>
+  </si>
+  <si>
+    <t>DRP/2024/0083</t>
+  </si>
+  <si>
+    <t>DRP/2024/0084</t>
+  </si>
+  <si>
+    <t>DRP/2024/0085</t>
+  </si>
+  <si>
+    <t>DRP/2024/0086</t>
+  </si>
+  <si>
+    <t>DRP/2024/0087</t>
+  </si>
+  <si>
+    <t>DRP/2024/0088</t>
+  </si>
+  <si>
+    <t>DRP/2024/0089</t>
+  </si>
+  <si>
+    <t>DRP/2024/0090</t>
+  </si>
+  <si>
+    <t>DRP/2024/0091</t>
+  </si>
+  <si>
+    <t>DRP/2024/0092</t>
+  </si>
+  <si>
+    <t>DRP/2024/0093</t>
+  </si>
+  <si>
+    <t>DRP/2024/0094</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +893,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -645,13 +936,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +988,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -723,6 +1022,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -757,9 +1057,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -932,17 +1233,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -961,847 +1264,1034 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>